--- a/Datalink.xlsx
+++ b/Datalink.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>https://technologybc/Sales</t>
   </si>
@@ -61,13 +64,755 @@
   </si>
   <si>
     <t>https://workspace/sites/FoodAllowance</t>
+  </si>
+  <si>
+    <t>To ALL Vodafone Egypt Employees,</t>
+  </si>
+  <si>
+    <r>
+      <t>Kindly be informed that a planned activity has been scheduled for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFE60000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>X-Raya DNS failover.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This activity will start on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Saturday, Jan 18</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2025,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Vodafone Rg"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>at</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1:00 AM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>and ends at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>6:00 AM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Vodafone Rg"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>What is the impact on you?</t>
+  </si>
+  <si>
+    <t>30 minutes of disturbance on the Vodafone.com.eg domain resolving, including</t>
+  </si>
+  <si>
+    <t>digital channels such as:</t>
+  </si>
+  <si>
+    <t>cloudmanager.vodafone.com.eg</t>
+  </si>
+  <si>
+    <t>vhub.vodafone.com.eg</t>
+  </si>
+  <si>
+    <t>domains.vodafone.com.eg</t>
+  </si>
+  <si>
+    <t>e3len.vodafone.com.eg</t>
+  </si>
+  <si>
+    <t>eshop.vodafone.com.eg</t>
+  </si>
+  <si>
+    <t>vcavtunnel.vodafone.com.eg</t>
+  </si>
+  <si>
+    <t>extranet.vodafone.com.eg</t>
+  </si>
+  <si>
+    <t>mobile.vodafone.com.eg</t>
+  </si>
+  <si>
+    <t>web.vodafone.com.eg</t>
+  </si>
+  <si>
+    <t>vf.eg (website)</t>
+  </si>
+  <si>
+    <t>and VPN profiles such as:</t>
+  </si>
+  <si>
+    <t>DC-support VPN</t>
+  </si>
+  <si>
+    <t>GSM remote VPN</t>
+  </si>
+  <si>
+    <t>WFH VPN</t>
+  </si>
+  <si>
+    <t>BCP VPN</t>
+  </si>
+  <si>
+    <t>etopup.vodafone.com.eg</t>
+  </si>
+  <si>
+    <t>payments.vodafone.com.eg</t>
+  </si>
+  <si>
+    <r>
+      <t>For further inquiries</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>regarding this change, please don't hesitate to write to the Help Desk.</t>
+    </r>
+  </si>
+  <si>
+    <t>Best Regards,</t>
+  </si>
+  <si>
+    <r>
+      <t>Technology Maintenance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF203864"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>HQ-ASR9K Routers H/W Upgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ana Vodafone </t>
+  </si>
+  <si>
+    <r>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>C2 General</t>
+    </r>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>Ahmed Ayman-Ali, Vodafone</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>To:​</t>
+  </si>
+  <si>
+    <t>Ahmed Ayman-Ali, Vodafone​</t>
+  </si>
+  <si>
+    <t>Tue 2024-11-05 7:16 PM</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>Retention: Emails 6 Years Deletion (6 years) Expires: Mon 2030-11-04 7:16 PM</t>
+  </si>
+  <si>
+    <t>New@User2025</t>
+  </si>
+  <si>
+    <t>1068697973 </t>
+  </si>
+  <si>
+    <t>https://www.sharepointin.com/eur/28d54ec7-2221-4717-acb0-7f8c37359048/50b79647-eac8-4a29-b5e5-7193242aba3e/890ed632-4499-4207-89bb-1bc502837f13/login?id=RVMrMmRpMExaUCs1T3FsV1VmWGxrQ0R3cTYzdFQzUmJCTlJOTzUzWnV0VXVnNVpBNXZhMkF6SHdwTXRyVWs5MnRLd0xKSFhmYlBtMFZsbXF4bjVTY1haTjFLSDR5L2xrS1RWUnByYXJNOU1ycWloSitpbm9IY2VnOFdidkhoa0FaSkdUUWwzUjFKUHduMkFIWlZaSVVQOWVuQVRreDFRaFpaSDZYdHQyRUpzbzMra2E0VHp0NG82SGQzT3dmOGV5dDNiMXZMWmZNclhtM3QzUXlETEJidVFpbTBjQU5xbk8ycnRhVXB3RUdTdnRSdzZKd3BFc0duTUNJWGxHc2NTRDVVSjJIMHNNS25wcVVIWURVdE5rTDhyc2J0M2xaaWZRcnJ6bWZTTHkxbEQ0NWNRczFWc3NIbGpQMHo5MWwxZXNyV1NOWkkrR1ZDVkJ0Z3plQzJaWUE1TURYRlo4K01IKzFsZnVnd0gvcnArOVBsUnZ0MitraG9Xa2hiL3E5SWNXSmcva2FETVdzSXIyeXBxeFJXY1orZVp1dEhZbHFsV1FhdTNSOFVGZVdzbmhhWG43ajhUNHR2Wm1WU1ByekprNQ</t>
+  </si>
+  <si>
+    <t>href="https://mcas-proxyweb.mcas.ms/certificate-checker?login=false&amp;originalUrl=https%3A%2F%2Fwww.sharepointin.com.mcas.ms%2Feur%2F28d54ec7-2221-4717-acb0-7f8c37359048%2F50b79647-eac8-4a29-b5e5-7193242aba3e%2F890ed632-4499-4207-89bb-1bc502837f13%2Flogin%3Fid%3DRVMrMmRpMExaUCs1T3FsV1VmWGxrQ0R3cTYzdFQzUmJCTlJOTzUzWnV0VXVnNVpBNXZhMkF6SHdwTXRyVWs5MnRLd0xKSFhmYlBtMFZsbXF4bjVTY1haTjFLSDR5L2xrS1RWUnByYXJNOU1ycWloSitpbm9IY2VnOFdidkhoa0FaSkdUUWwzUjFKUHduMkFIWlZaSVVQOWVuQVRreDFRaFpaSDZYdHQyRUpzbzMra2E0VHp0NG82SGQzT3dmOGV5dDNiMXZMWmZNclhtM3QzUXlETEJidVFpbTBjQU5xbk8ycnRhVXB3RUdTdnRSdzZKd3BFc0duTUNJWGxHc2NTRDVVSjJIMHNNS25wcVVIWURVdE5rTDhyc2J0M2xaaWZRcnJ6bWZTTHkxbEQ0NWNRczFWc3NIbGpQMHo5MWwxZXNyV1NOWkkrR1ZDVkJ0Z3plQzJaWUE1TURYRlo4K01IKzFsZnVnd0gvcnArOVBsUnZ0MitraG9Xa2hiL3E5SWNXSmcva2FETVdzSXIyeXBxeFJXY1orZVp1dEhZbHFsV1FhdTNSOFVGZVdzbmhhWG43ajhUNHR2Wm1WU1ByekprNQ%26McasTsid%3D20893&amp;McasCSRF=4a87975edfd87641e62c2040676b7ab1a006676b8ade7430b70ff0e5a9b9cc55"</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vodafone.com.eg  domain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>cloudmanager.vodafone.com.eg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>vhub.vodafone.com.eg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>dotmasr.vodafone.com.eg </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>e3len.vodafone.com.eg </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>eshop.vodafone.com.eg </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>vcavtunnel.vodafone.com.eg </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>extranet.vodafone.com.eg </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>mobile.vodafone.com.eg (Mobile app)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>web.vodafone.com.eg (Website)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>vf.eg (Website)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>DC-support VPN (myworksupport01.vodafone.com.eg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>GSM remote VPN (myworksupport02.vodafone.com.eg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>WFH VPN (wfh.vodafone.com.eg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>E-topup system web portal (etopup.vodafone.com.eg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Payment Gateway (payments.vodafone.com.eg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mail routing</t>
+    </r>
+  </si>
+  <si>
+    <t>   Connection-specific DNS Suffix  . :</t>
+  </si>
+  <si>
+    <t>   Link-local IPv6 Address . . . . . : fe80::295f:c674:f00a:7eb9%13</t>
+  </si>
+  <si>
+    <t>   IPv4 Address. . . . . . . . . . . : 10.230.103.187</t>
+  </si>
+  <si>
+    <t>   Subnet Mask . . . . . . . . . . . : 255.255.255.0</t>
+  </si>
+  <si>
+    <t>   Default Gateway . . . . . . . . . : 10.230.103.3</t>
+  </si>
+  <si>
+    <t>Alerting || User: VodaCC , Pass:V0d@C7C!</t>
+  </si>
+  <si>
+    <t>Roaming Prices</t>
+  </si>
+  <si>
+    <t>Content service|| User:vfegsupport , Pass: Vfegsu990rt</t>
+  </si>
+  <si>
+    <t>Masking|| User:vodafone , Pass: VF#D!@1_M@$k!n3</t>
+  </si>
+  <si>
+    <t>1212 &amp; 2018 || User:VFCustomerCare , Pass:Vod@12121311_$</t>
+  </si>
+  <si>
+    <t>Egypt likes || User:ccareuser1 , Pass:ccareuser1654</t>
+  </si>
+  <si>
+    <t>Vodafone live|| User:vfegypt , Pass:GU74y1HgR</t>
+  </si>
+  <si>
+    <t>Online gaming-Tpay|| User:Vodafone.Customer.Care@vodafone.com , Pass:LiveP@ssw0rd1234</t>
+  </si>
+  <si>
+    <t>Online gaming-Mondia || User:vodafone , Pass:Vodafone</t>
+  </si>
+  <si>
+    <t>SMS&amp; Win || User: vfegsupport , Pass:Vfegsu990rt</t>
+  </si>
+  <si>
+    <t>Free Calls for 10 years|| User:vfeg , Pass:6a[fykHrUbrX_4LK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +948,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -210,6 +967,169 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFE60000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Vodafone Rg"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Vodafone Rg"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFE60000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1F497D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF203864"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="FluentSystemIcons"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="FluentSystemIconsRegular"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="FluentSystemIcons"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="FluentSystemIcons"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFE3E3E3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,7 +1312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -507,6 +1427,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -551,12 +1480,81 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -615,6 +1613,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3073" name="AutoShape 1" descr="blob:https://outlook.office.com.mcas.ms/42a749ca-4636-41a5-b2c6-1ff9325c10f5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2162175" y="1200150"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -882,81 +1927,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="90">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="75">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="30">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="90">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="90">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="90">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="75">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="45">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="60">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="120">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="90">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,4 +2026,474 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="78" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="76.5">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" ht="178.5">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:1" ht="168">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" ht="63.75">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:1" ht="165.75">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="51">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1" ht="63.75">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="51">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="51">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="51">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="51">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="63.75">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="51">
+      <c r="A18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="51">
+      <c r="A19" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="51">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="38.25">
+      <c r="A21" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16.5">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" ht="38.25">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="38.25">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="38.25">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="25.5">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="25.5">
+      <c r="A28" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="51">
+      <c r="A29" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="63.75">
+      <c r="A30" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:1" ht="204">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" spans="1:1" ht="25.5">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="51">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="78.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="54">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54">
+      <c r="B2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5">
+      <c r="B5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5">
+      <c r="A9" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.25">
+      <c r="A10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5">
+      <c r="A11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38.25">
+      <c r="A12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.5">
+      <c r="A13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5">
+      <c r="A14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="38.25">
+      <c r="A15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38.25">
+      <c r="A16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="38.25">
+      <c r="A17" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="162">
+      <c r="A19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="216">
+      <c r="A20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="144">
+      <c r="A21" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="180">
+      <c r="A22" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="180">
+      <c r="A23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="82.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="75.75" thickBot="1">
+      <c r="A1" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30.75" thickBot="1">
+      <c r="A2" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="120.75" thickBot="1">
+      <c r="A3" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="120.75" thickBot="1">
+      <c r="A4" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="120.75" thickBot="1">
+      <c r="A5" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="105.75" thickBot="1">
+      <c r="A6" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="90.75" thickBot="1">
+      <c r="A7" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="180.75" thickBot="1">
+      <c r="A8" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="120.75" thickBot="1">
+      <c r="A9" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="105.75" thickBot="1">
+      <c r="A10" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="135.75" thickBot="1">
+      <c r="A11" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="http://196.219.32.230:8088/VfCCare/tthome.aspx"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.vodafone.com.eg/vodafoneportalWeb/ar/P34200814981513764042220"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://vep4f.upstreamsystems.com/login"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://196.10.120.201/MSISDNMasking/Login.aspx"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://gdapps.info/VodafoneAlerts/LoginPage.aspx"/>
+    <hyperlink ref="A6" r:id="rId6" display="http://213.154.45.182/veltivodafonereporting/"/>
+    <hyperlink ref="A7" r:id="rId7" display="http://ccare.mondiamediamena.com/customer-care-interface/login"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://self-manage.tpay.me/simpleLogin.aspx"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://cuca.mondiamediamena.com/cuca/login"/>
+    <hyperlink ref="A10" r:id="rId10" display="http://vep4f.upstreamsystems.com/login"/>
+    <hyperlink ref="A11" r:id="rId11" display="http://egvodafone-promos.upstreamsystems.com/index.php"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>